--- a/prodinfo/mea/sa/output/res20251224.xlsx
+++ b/prodinfo/mea/sa/output/res20251224.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-12-24 17:24:09</v>
+        <v>2025-12-24 17:39:28</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-12-24 17:24:14</v>
+        <v>2025-12-24 17:39:33</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -468,12 +468,12 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>3129.5652</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-12-24 17:24:22</v>
+        <v>2025-12-24 17:39:37</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025-12-24 17:24:27</v>
+        <v>2025-12-24 17:39:43</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
